--- a/Resolutions.xlsx
+++ b/Resolutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Dropbox\All Projects\Coding Projects\Visualizing SEP\VisualizingSEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5D10D6-312E-43BE-9C6F-DFAFAF9EA44B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE944EB9-B272-4454-B180-AD49484122FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10516" xr2:uid="{D5DD3944-4952-42DD-A866-404AF13F9EE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="18240" xr2:uid="{D5DD3944-4952-42DD-A866-404AF13F9EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Screen Resolutions</t>
   </si>
@@ -115,13 +115,22 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>AR: 4/3</t>
+  </si>
+  <si>
+    <t>AR: 16/9</t>
+  </si>
+  <si>
+    <t>ar: 16/10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +143,14 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,12 +173,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7454909-0D20-4DCC-99EB-89EE9095A640}">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -488,16 +507,16 @@
     <col min="18" max="18" width="14.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="3"/>
       <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="F2" t="s">
         <v>2</v>
       </c>
@@ -511,7 +530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>6016</v>
       </c>
@@ -538,18 +557,22 @@
         <f t="shared" ref="J3:J4" si="4">B3/2</f>
         <v>1692</v>
       </c>
+      <c r="P3">
+        <f>D18</f>
+        <v>1.7786458333333333</v>
+      </c>
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S3">
-        <v>22.86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
+        <v>22.57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
         <v>5120</v>
       </c>
       <c r="B4">
@@ -575,17 +598,25 @@
         <f t="shared" si="4"/>
         <v>1440</v>
       </c>
+      <c r="P4">
+        <f>D11</f>
+        <v>1.7777777777777777</v>
+      </c>
       <c r="Q4">
         <v>2</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="S4">
-        <v>20.73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+        <v>20.9</v>
+      </c>
+      <c r="U4">
+        <f>SUM(S3:S14)</f>
+        <v>82.789999999999978</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3840</v>
       </c>
@@ -612,17 +643,20 @@
         <f>B5/2</f>
         <v>1080</v>
       </c>
+      <c r="P5">
+        <v>1.7777777777777777</v>
+      </c>
       <c r="Q5">
         <v>3</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="S5">
-        <v>8.16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2560</v>
       </c>
@@ -649,17 +683,20 @@
         <f t="shared" ref="J6:J25" si="9">B6/2</f>
         <v>800</v>
       </c>
+      <c r="P6">
+        <v>1.6</v>
+      </c>
       <c r="Q6">
         <v>4</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="S6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2560</v>
       </c>
@@ -686,17 +723,20 @@
         <f t="shared" si="9"/>
         <v>720</v>
       </c>
+      <c r="P7">
+        <v>1.7777777777777777</v>
+      </c>
       <c r="Q7">
         <v>5</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="S7">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2048</v>
       </c>
@@ -723,17 +763,20 @@
         <f t="shared" si="9"/>
         <v>768</v>
       </c>
+      <c r="P8">
+        <v>1.7777777777777777</v>
+      </c>
       <c r="Q8">
         <v>6</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="S8">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1920</v>
       </c>
@@ -760,17 +803,20 @@
         <f t="shared" si="9"/>
         <v>720</v>
       </c>
+      <c r="P9">
+        <v>1.6</v>
+      </c>
       <c r="Q9">
         <v>7</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="S9">
-        <v>3.08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1920</v>
       </c>
@@ -797,17 +843,20 @@
         <f t="shared" si="9"/>
         <v>600</v>
       </c>
+      <c r="P10">
+        <v>1.25</v>
+      </c>
       <c r="Q10">
         <v>8</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="S10">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1920</v>
       </c>
@@ -841,10 +890,10 @@
         <v>14</v>
       </c>
       <c r="S11">
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1680</v>
       </c>
@@ -878,10 +927,10 @@
         <v>15</v>
       </c>
       <c r="S12">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1600</v>
       </c>
@@ -908,17 +957,20 @@
         <f t="shared" si="9"/>
         <v>600</v>
       </c>
+      <c r="P13">
+        <v>1.6</v>
+      </c>
       <c r="Q13">
         <v>11</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="S13">
-        <v>2.2799999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1600</v>
       </c>
@@ -945,17 +997,20 @@
         <f t="shared" si="9"/>
         <v>512</v>
       </c>
+      <c r="P14">
+        <v>1.7777777777777777</v>
+      </c>
       <c r="Q14">
         <v>12</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="S14">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1600</v>
       </c>
@@ -982,14 +1037,18 @@
         <f t="shared" si="9"/>
         <v>450</v>
       </c>
-      <c r="R15" t="s">
+      <c r="P15">
+        <f>1360/768</f>
+        <v>1.7708333333333333</v>
+      </c>
+      <c r="R15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="S15">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1440</v>
       </c>
@@ -1016,11 +1075,11 @@
         <f t="shared" si="9"/>
         <v>450</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="S16">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
@@ -1054,7 +1113,7 @@
         <v>20</v>
       </c>
       <c r="S17">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
@@ -1085,10 +1144,10 @@
         <v>384</v>
       </c>
       <c r="R18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S18">
-        <v>0.56999999999999995</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
@@ -1119,7 +1178,7 @@
         <v>512</v>
       </c>
       <c r="R19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S19">
         <v>0.5</v>
@@ -1153,7 +1212,7 @@
         <v>480</v>
       </c>
       <c r="R20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S20">
         <v>0.5</v>
@@ -1187,10 +1246,10 @@
         <v>400</v>
       </c>
       <c r="R21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S21">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
@@ -1221,10 +1280,10 @@
         <v>360</v>
       </c>
       <c r="R22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S22">
-        <v>0.38</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
@@ -1258,7 +1317,7 @@
         <v>26</v>
       </c>
       <c r="S23">
-        <v>11.74</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
@@ -1315,6 +1374,33 @@
       <c r="J25">
         <f t="shared" si="9"/>
         <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="D28">
+        <f>4/3</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="D29">
+        <f>16/9</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="D30">
+        <f>16/10</f>
+        <v>1.6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
